--- a/第7周/张海组-第七周评分表.xlsx
+++ b/第7周/张海组-第七周评分表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>第7周评分表（4.9-4.16）</t>
   </si>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>杨寿才</t>
+  </si>
+  <si>
+    <t>任务完成的文档的最终利用率和工作量程度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加10分：上周开发计划文档参与修改与这周需求分析文档参与修改
+</t>
+  </si>
+  <si>
+    <t>30分：100%利用率和最多的工作量
+25分：80-99%利用率和较多的工作量
+20分：50-79%利用率和一般的工作量
+15分：30-50%利用率和一般的工作量
+10分：10-30%利用率和较少的工作量
+5分：0-10%利用率和最少的工作量
+0分：未完成</t>
+  </si>
+  <si>
+    <t>30分：提前2天完成
+25分：提前1天完成
+20分：按时完成
+15分：迟交1天
+10分：迟交2天
+0分：未提交</t>
   </si>
 </sst>
 </file>
@@ -72,9 +96,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,6 +117,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -106,11 +174,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,117 +252,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,43 +269,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,37 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,97 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +478,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -469,35 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,21 +524,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +551,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,137 +595,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +734,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1059,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1129,7 +1156,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>30</v>
@@ -1147,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1181,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
@@ -1199,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1207,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>30</v>
@@ -1222,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="G7" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1233,7 +1260,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>30</v>
@@ -1248,10 +1275,10 @@
         <v>10</v>
       </c>
       <c r="G8" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1259,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>30</v>
@@ -1274,10 +1301,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1285,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>30</v>
@@ -1300,10 +1327,26 @@
         <v>10</v>
       </c>
       <c r="G10" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>100</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" ht="72" spans="2:7">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="187" customHeight="1" spans="2:3">
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/第7周/张海组-第七周评分表.xlsx
+++ b/第7周/张海组-第七周评分表.xlsx
@@ -95,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,7 +117,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,6 +221,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -139,13 +236,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -153,108 +244,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,25 +269,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,19 +371,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,13 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,19 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,91 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,8 +481,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +498,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,54 +575,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1156,7 +1156,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>30</v>
@@ -1174,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8">
